--- a/Oefeningen/excel2rdf - TEMPLATE.xlsx
+++ b/Oefeningen/excel2rdf - TEMPLATE.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BIMLoket\training-linkeddata\Oefeningen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99A9C18-5E54-4452-8AC3-A0D4BABDBBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CBD9BE-1582-4EC8-9048-C6E6BEBDCB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17385" yWindow="32280" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="3" r:id="rId1"/>
+    <sheet name="schema" sheetId="3" r:id="rId1"/>
+    <sheet name="nen2660" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>URI</t>
   </si>
@@ -32,9 +33,6 @@
   </si>
   <si>
     <t>rdfs:label@en</t>
-  </si>
-  <si>
-    <t>schema:startDate^^xsd:date</t>
   </si>
   <si>
     <t>Graph URI</t>
@@ -121,6 +119,15 @@
   </si>
   <si>
     <t>En de rijen onder de groene header mogen gebruikt worden</t>
+  </si>
+  <si>
+    <t>schema:foundingDate^^xsd:date</t>
+  </si>
+  <si>
+    <t>schema:owns</t>
+  </si>
+  <si>
+    <t>nen2660:hasPart</t>
   </si>
 </sst>
 </file>
@@ -174,7 +181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,16 +204,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -514,139 +521,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" s="4"/>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -654,4 +663,197 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB65F7D9-5A77-475F-A5C6-4AE830253D2B}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{FAC0A2BA-D7D7-4393-BC95-7DBDD8BA01CD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Oefeningen/excel2rdf - TEMPLATE.xlsx
+++ b/Oefeningen/excel2rdf - TEMPLATE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BIMLoket\training-linkeddata\Oefeningen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CBD9BE-1582-4EC8-9048-C6E6BEBDCB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4125360E-25A6-488B-ACF0-99FA890FD908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17385" yWindow="32280" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="3" r:id="rId1"/>
@@ -90,8 +90,23 @@
     </r>
   </si>
   <si>
+    <t>De rode teksten hierboven moeten verandert worden</t>
+  </si>
+  <si>
+    <t>En de rijen onder de groene header mogen gebruikt worden</t>
+  </si>
+  <si>
+    <t>schema:foundingDate^^xsd:date</t>
+  </si>
+  <si>
+    <t>schema:owns</t>
+  </si>
+  <si>
+    <t>nen2660:hasPart</t>
+  </si>
+  <si>
     <r>
-      <t>http:/</t>
+      <t>http://</t>
     </r>
     <r>
       <rPr>
@@ -113,21 +128,6 @@
       </rPr>
       <t>.ik/</t>
     </r>
-  </si>
-  <si>
-    <t>De rode teksten hierboven moeten verandert worden</t>
-  </si>
-  <si>
-    <t>En de rijen onder de groene header mogen gebruikt worden</t>
-  </si>
-  <si>
-    <t>schema:foundingDate^^xsd:date</t>
-  </si>
-  <si>
-    <t>schema:owns</t>
-  </si>
-  <si>
-    <t>nen2660:hasPart</t>
   </si>
 </sst>
 </file>
@@ -523,25 +523,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="2"/>
+    <col min="1" max="1" width="25.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -557,11 +557,11 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -585,27 +585,27 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,35 +625,35 @@
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
@@ -669,20 +669,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB65F7D9-5A77-475F-A5C6-4AE830253D2B}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
@@ -714,7 +714,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
@@ -759,9 +759,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -772,9 +772,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -785,7 +785,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -796,7 +796,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,14 +810,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -828,7 +828,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -839,7 +839,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
